--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IZRAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D6A4B8-E696-4E99-B7C9-0BC7F0134D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB95DC-5D7F-414C-B384-7CB2E4E39C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2364,10 +2364,20 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B8">
+        <v>427</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B9">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB95DC-5D7F-414C-B384-7CB2E4E39C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AEFA0-83AE-4EA2-AD83-7163C2577A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>кафе хайфа</t>
+  </si>
+  <si>
+    <t>ветерина препараты</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2244,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2383,15 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AEFA0-83AE-4EA2-AD83-7163C2577A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99CD91-399C-4DCB-ADC9-AECE1E5266F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2850" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="июль" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>ветерина препараты</t>
+  </si>
+  <si>
+    <t>доставка мягкой мебели</t>
   </si>
 </sst>
 </file>
@@ -2243,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2394,7 +2397,15 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>44801</v>
+      </c>
+      <c r="P11">
+        <v>550</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99CD91-399C-4DCB-ADC9-AECE1E5266F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD886C-DE31-4BE9-B3BD-D25B37F89131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="2850" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>доставка мягкой мебели</t>
+  </si>
+  <si>
+    <t>налог</t>
+  </si>
+  <si>
+    <t>сумка</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2253,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2408,13 +2414,34 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B12">
+        <v>192</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44802</v>
+      </c>
+      <c r="D13">
+        <v>350</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44802</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD886C-DE31-4BE9-B3BD-D25B37F89131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A865B2-A416-4BEA-A737-D11E7A3B6F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2850" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="июль" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>сумка</t>
+  </si>
+  <si>
+    <t>29.08.202</t>
   </si>
 </sst>
 </file>
@@ -2252,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2444,7 +2447,12 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A865B2-A416-4BEA-A737-D11E7A3B6F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6379F-7BEC-47AF-953B-C96C15BF633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>сумка</t>
-  </si>
-  <si>
-    <t>29.08.202</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2253,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2447,15 +2444,20 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
+      <c r="A15" s="1">
+        <v>44802</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -2564,5 +2566,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6379F-7BEC-47AF-953B-C96C15BF633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDC965-1933-47BE-A29C-392BDF5A9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>сумка</t>
+  </si>
+  <si>
+    <t>gifts for clilds</t>
+  </si>
+  <si>
+    <t>одежда детям в декатлоне</t>
+  </si>
+  <si>
+    <t>для светы</t>
   </si>
 </sst>
 </file>
@@ -2250,16 +2259,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
@@ -2310,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2332,7 +2342,6 @@
       <c r="E3">
         <v>200</v>
       </c>
-      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -2355,7 +2364,6 @@
       <c r="J5">
         <v>148</v>
       </c>
-      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2364,7 +2372,6 @@
       <c r="B6">
         <v>102</v>
       </c>
-      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2373,7 +2380,6 @@
       <c r="B7">
         <v>59</v>
       </c>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2391,25 +2397,25 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44801</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44801</v>
       </c>
       <c r="P11">
         <v>550</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2428,7 +2434,7 @@
       <c r="D13">
         <v>350</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2439,7 +2445,7 @@
       <c r="K14">
         <v>100</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2459,52 +2465,94 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44805</v>
+      </c>
+      <c r="M18">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44805</v>
+      </c>
+      <c r="L19">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B20">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B21">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B22">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2563,6 +2611,9 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDC965-1933-47BE-A29C-392BDF5A9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B23811-A057-425B-8A46-A7A15B71F378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2262,7 +2262,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44794</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44801</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44801</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44805</v>
       </c>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44825</v>
+        <v>44806</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -2526,7 +2526,12 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B23">
+        <v>284</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B23811-A057-425B-8A46-A7A15B71F378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB96071-61F1-4C2A-BCCE-DECAF5273C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>для светы</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>канцтовары</t>
   </si>
 </sst>
 </file>
@@ -2261,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44794</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44794</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44794</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44795</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44795</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44796</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44798</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44799</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44801</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44801</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44802</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44802</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44802</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44802</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44804</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44804</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44805</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44805</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44805</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44805</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44806</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44809</v>
       </c>
@@ -2533,31 +2539,62 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44810</v>
+      </c>
+      <c r="J24">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44810</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44810</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44811</v>
+      </c>
+      <c r="J28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB96071-61F1-4C2A-BCCE-DECAF5273C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701D970-5E52-453B-8740-F2E52F9366F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>канцтовары</t>
+  </si>
+  <si>
+    <t>кафе</t>
+  </si>
+  <si>
+    <t>Света</t>
+  </si>
+  <si>
+    <t>дуду</t>
+  </si>
+  <si>
+    <t>рынок света</t>
   </si>
 </sst>
 </file>
@@ -2267,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2330,7 +2342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44794</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44794</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44794</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44795</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44795</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44796</v>
       </c>
@@ -2387,7 +2399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44798</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44799</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44801</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44801</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44802</v>
       </c>
@@ -2433,7 +2445,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44802</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44802</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44802</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44804</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44804</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44805</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44805</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44805</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44805</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44806</v>
       </c>
@@ -2586,63 +2598,121 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>44811</v>
+      </c>
+      <c r="E29">
+        <v>200</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44813</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701D970-5E52-453B-8740-F2E52F9366F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C530BDB-41E4-4A57-8B47-A5949DB9AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2680,10 +2680,20 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B37">
+        <v>244</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>44814</v>
+      </c>
+      <c r="D38">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C530BDB-41E4-4A57-8B47-A5949DB9AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED51A3-9ACF-4F93-8ACA-29B5BAFC7AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>рынок света</t>
+  </si>
+  <si>
+    <t>учебник</t>
+  </si>
+  <si>
+    <t>ХОЗ ТОВАРЫ</t>
   </si>
 </sst>
 </file>
@@ -2279,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2342,7 +2348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44794</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44794</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44794</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44795</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44795</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44796</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44798</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44799</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44801</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44801</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44802</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44802</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44802</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44802</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44804</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44804</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44805</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44805</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44805</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44805</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44806</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44809</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44810</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44810</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44810</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44811</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44811</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44811</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44812</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44812</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44812</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44813</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44813</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44813</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44814</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44814</v>
       </c>
@@ -2695,35 +2701,94 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D40">
+        <v>265</v>
+      </c>
+      <c r="L40">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B41">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B42">
+        <v>79</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>44818</v>
+      </c>
+      <c r="K43">
+        <v>64</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B45">
+        <v>226</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>44819</v>
+      </c>
+      <c r="E46">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B47">
+        <v>158</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED51A3-9ACF-4F93-8ACA-29B5BAFC7AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FCE19-02FD-481C-A725-F80744C38584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="июль" sheetId="1" r:id="rId1"/>
     <sheet name="август" sheetId="2" r:id="rId2"/>
     <sheet name="Сент" sheetId="3" r:id="rId3"/>
+    <sheet name="окт" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -1687,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0DC8BE-AACD-49D9-9F1D-42F6FCEC5244}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44763</v>
       </c>
@@ -1758,7 +1759,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44763</v>
       </c>
@@ -1767,7 +1768,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44764</v>
       </c>
@@ -1779,7 +1780,7 @@
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44765</v>
       </c>
@@ -1788,7 +1789,7 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44766</v>
       </c>
@@ -1797,7 +1798,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44766</v>
       </c>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44766</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44767</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44768</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44769</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44769</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44769</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44769</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44769</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44769</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44769</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44770</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44773</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44773</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44773</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44774</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44774</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44774</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44775</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44776</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44777</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44778</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44778</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44779</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44780</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44782</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44783</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44784</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44784</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44784</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44785</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44786</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44787</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44788</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44789</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44789</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44789</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44789</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44790</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44791</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44791</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44792</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44792</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44792</v>
       </c>
@@ -2285,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2348,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44794</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44794</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44794</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44795</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44795</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44796</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44798</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44799</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44801</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44801</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44802</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44802</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44802</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44802</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44804</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44804</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44805</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44805</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44805</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44805</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44806</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44809</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44810</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44810</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44810</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44811</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44811</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44811</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44812</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44812</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44812</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44813</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44813</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44813</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44814</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44814</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44815</v>
       </c>
@@ -2790,20 +2791,197 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44824</v>
+      </c>
+      <c r="H49">
+        <v>78</v>
+      </c>
+      <c r="J49">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f>SUM(B2:B49)</f>
+        <v>3676</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:P51" si="0">SUM(C2:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1071</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f>SUM(B51:P51)</f>
+        <v>7546</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6577C9-0695-464D-B2F4-7D50AA938C20}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44827</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FCE19-02FD-481C-A725-F80744C38584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F95144C-770D-4A2C-AF57-C7D99B505949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2878,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6577C9-0695-464D-B2F4-7D50AA938C20}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2981,6 +2981,60 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44738</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44837</v>
+      </c>
+      <c r="C8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F95144C-770D-4A2C-AF57-C7D99B505949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8386A66E-3A20-4FA1-80FD-5C9A068E2DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="июль" sheetId="1" r:id="rId1"/>
     <sheet name="август" sheetId="2" r:id="rId2"/>
     <sheet name="Сент" sheetId="3" r:id="rId3"/>
     <sheet name="окт" sheetId="4" r:id="rId4"/>
+    <sheet name="ноябрь" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -2878,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6577C9-0695-464D-B2F4-7D50AA938C20}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3033,7 +3034,192 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B13">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44847</v>
+      </c>
+      <c r="M14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B15">
+        <v>141</v>
+      </c>
+      <c r="L15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44853</v>
+      </c>
+      <c r="H16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AF660-DDE9-4A02-8A48-CAB9D5B3FEEA}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B2">
+        <v>208</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8386A66E-3A20-4FA1-80FD-5C9A068E2DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826879E3-E9AF-4E39-A373-5B3071F16F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>ХОЗ ТОВАРЫ</t>
+  </si>
+  <si>
+    <t>24.20.2022</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3100,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3171,12 +3174,22 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826879E3-E9AF-4E39-A373-5B3071F16F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E99E96F-D92B-46F8-841D-7B60DBCF4C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>24.20.2022</t>
+  </si>
+  <si>
+    <t>decatlon</t>
+  </si>
+  <si>
+    <t>market</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3106,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3194,27 +3200,83 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>150</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>44861</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>44861</v>
+      </c>
+      <c r="L7">
+        <v>237</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B9">
+        <v>378</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E99E96F-D92B-46F8-841D-7B60DBCF4C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A322A3B-9FCC-491B-AC6F-FFB741EA6B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>market</t>
+  </si>
+  <si>
+    <t>кофе</t>
   </si>
 </sst>
 </file>
@@ -3106,7 +3109,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3279,10 +3282,23 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>44863</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A322A3B-9FCC-491B-AC6F-FFB741EA6B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013A56B-4A27-4EA8-B4CB-CA5360BCA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>кофе</t>
+  </si>
+  <si>
+    <t>учитель пете</t>
+  </si>
+  <si>
+    <t>фея пете</t>
+  </si>
+  <si>
+    <t>09.11 2022</t>
   </si>
 </sst>
 </file>
@@ -3106,10 +3115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AF660-DDE9-4A02-8A48-CAB9D5B3FEEA}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3301,16 +3310,120 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>44867</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A16" s="1">
+        <v>44867</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44868</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44871</v>
+      </c>
+      <c r="J23">
+        <v>350</v>
+      </c>
+      <c r="L23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013A56B-4A27-4EA8-B4CB-CA5360BCA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D488C7C-1786-441C-B70F-3C378D043453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -3115,10 +3115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AF660-DDE9-4A02-8A48-CAB9D5B3FEEA}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3425,6 +3425,104 @@
         <v>265</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="R31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B33">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B34">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="H35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44883</v>
+      </c>
+      <c r="H36">
+        <v>135</v>
+      </c>
+      <c r="I36">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D488C7C-1786-441C-B70F-3C378D043453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C2807-1C90-4A8E-924B-CB3D29283E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="июль" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Сент" sheetId="3" r:id="rId3"/>
     <sheet name="окт" sheetId="4" r:id="rId4"/>
     <sheet name="ноябрь" sheetId="5" r:id="rId5"/>
+    <sheet name="декабрь" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -202,6 +203,9 @@
   </si>
   <si>
     <t>09.11 2022</t>
+  </si>
+  <si>
+    <t>ул еда</t>
   </si>
 </sst>
 </file>
@@ -3117,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AF660-DDE9-4A02-8A48-CAB9D5B3FEEA}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3526,4 +3530,235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B275EE-62ED-4475-B31C-0BFB13BA249E}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44889</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44893</v>
+      </c>
+      <c r="D10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C2807-1C90-4A8E-924B-CB3D29283E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36256D91-E7DA-4590-BE74-F8CFF2172F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -3534,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B275EE-62ED-4475-B31C-0BFB13BA249E}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="T23" sqref="T22:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3680,70 +3680,122 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>44893</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B13">
+        <v>354</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>44896</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44898</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44898</v>
+      </c>
+      <c r="M18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="R19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -3757,6 +3809,9 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36256D91-E7DA-4590-BE74-F8CFF2172F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74BABC-FADB-434F-83AD-5DD0F2CD8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -3537,7 +3537,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T22:T23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3763,13 +3763,31 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>44899</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="R21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B22">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74BABC-FADB-434F-83AD-5DD0F2CD8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C9B368-F839-4191-BE00-CB84D0988128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>ул еда</t>
+  </si>
+  <si>
+    <t>памятник</t>
   </si>
 </sst>
 </file>
@@ -3536,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B275EE-62ED-4475-B31C-0BFB13BA249E}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3790,19 +3793,58 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="R25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B26">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44903</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>44903</v>
+      </c>
+      <c r="Q28">
+        <v>1900</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C9B368-F839-4191-BE00-CB84D0988128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6022B9B4-3BCD-4CCB-9153-1EBEAA724091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="июль" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="окт" sheetId="4" r:id="rId4"/>
     <sheet name="ноябрь" sheetId="5" r:id="rId5"/>
     <sheet name="декабрь" sheetId="6" r:id="rId6"/>
+    <sheet name="январь" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -209,6 +210,18 @@
   </si>
   <si>
     <t>памятник</t>
+  </si>
+  <si>
+    <t>стомат</t>
+  </si>
+  <si>
+    <t>иврит</t>
+  </si>
+  <si>
+    <t>подарок</t>
+  </si>
+  <si>
+    <t>прививка</t>
   </si>
 </sst>
 </file>
@@ -3537,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B275EE-62ED-4475-B31C-0BFB13BA249E}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3600,25 +3613,479 @@
         <v>27</v>
       </c>
     </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44889</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44893</v>
+      </c>
+      <c r="D10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B13">
+        <v>354</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44896</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44898</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44898</v>
+      </c>
+      <c r="M18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="R19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44899</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="R21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B22">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="R25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B26">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44903</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44903</v>
+      </c>
+      <c r="Q28">
+        <v>1900</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="R29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44906</v>
+      </c>
+      <c r="C30">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44906</v>
+      </c>
+      <c r="H31">
+        <v>412</v>
+      </c>
+      <c r="R31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44907</v>
+      </c>
+      <c r="H32">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44908</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B34">
+        <v>132</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="Q34">
+        <v>75</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B35">
+        <v>110</v>
+      </c>
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="Q36">
+        <v>180</v>
+      </c>
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44913</v>
+      </c>
+      <c r="Q37">
+        <v>80</v>
+      </c>
+      <c r="R37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B38">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="R39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44915</v>
+      </c>
+      <c r="Q40">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF409CDA-AA1E-4040-93D1-2DD18BDD4053}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44887</v>
+        <v>44916</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44889</v>
+        <v>44918</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44889</v>
+        <v>44920</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
         <v>12</v>
@@ -3626,252 +4093,14 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44889</v>
+        <v>44920</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44889</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>44889</v>
-      </c>
-      <c r="B7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>44889</v>
-      </c>
-      <c r="D8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>44893</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="R9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>44893</v>
-      </c>
-      <c r="D10">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>44895</v>
-      </c>
-      <c r="B11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>44893</v>
-      </c>
-      <c r="B12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B13">
-        <v>354</v>
-      </c>
-      <c r="D13">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="R14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>44896</v>
-      </c>
-      <c r="E15">
+        <v>252</v>
+      </c>
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="G15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44898</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44898</v>
-      </c>
-      <c r="M18">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44898</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="R19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44899</v>
-      </c>
-      <c r="G20">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44900</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="R21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44900</v>
-      </c>
-      <c r="B22">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44902</v>
-      </c>
-      <c r="B23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44902</v>
-      </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44902</v>
-      </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="R25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44903</v>
-      </c>
-      <c r="B26">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44903</v>
-      </c>
-      <c r="G27">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44903</v>
-      </c>
-      <c r="Q28">
-        <v>1900</v>
-      </c>
-      <c r="R28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOOK_KEEP.xlsx
+++ b/BOOK_KEEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISRAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6022B9B4-3BCD-4CCB-9153-1EBEAA724091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74867009-F3D5-435E-9EBF-131FCA753FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>ПРОДУКТЫ</t>
   </si>
@@ -221,7 +221,10 @@
     <t>подарок</t>
   </si>
   <si>
-    <t>прививка</t>
+    <t>подарки НГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прививка </t>
   </si>
 </sst>
 </file>
@@ -2326,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FB0AD-DEF3-43AB-9240-4836568E90B8}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2845,10 +2848,6 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <f>SUM(B2:B49)</f>
-        <v>3676</v>
-      </c>
       <c r="C51">
         <f t="shared" ref="C51:P51" si="0">SUM(C2:C49)</f>
         <v>0</v>
@@ -2904,12 +2903,6 @@
       <c r="P51">
         <f t="shared" si="0"/>
         <v>550</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <f>SUM(B51:P51)</f>
-        <v>7546</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2916,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3138,7 +3131,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3553,7 +3546,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3613,7 +3606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44887</v>
       </c>
@@ -3621,12 +3614,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44889</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44889</v>
       </c>
@@ -3637,7 +3630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44889</v>
       </c>
@@ -3648,7 +3641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44889</v>
       </c>
@@ -3659,7 +3652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44889</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44889</v>
       </c>
@@ -3675,7 +3668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44893</v>
       </c>
@@ -3686,7 +3679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44893</v>
       </c>
@@ -3694,7 +3687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44895</v>
       </c>
@@ -3702,7 +3695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44893</v>
       </c>
@@ -3710,7 +3703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -3721,7 +3714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44896</v>
       </c>
@@ -3732,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44896</v>
       </c>
@@ -3743,7 +3736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44896</v>
       </c>
@@ -3751,7 +3744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44898</v>
       </c>
@@ -3759,7 +3752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44898</v>
       </c>
@@ -3767,7 +3760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44898</v>
       </c>
@@ -3778,7 +3771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44899</v>
       </c>
@@ -3786,7 +3779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44900</v>
       </c>
@@ -3797,7 +3790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44900</v>
       </c>
@@ -3805,7 +3798,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44902</v>
       </c>
@@ -3813,7 +3806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44902</v>
       </c>
@@ -3821,7 +3814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44902</v>
       </c>
@@ -3832,7 +3825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44903</v>
       </c>
@@ -3840,7 +3833,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44903</v>
       </c>
@@ -3848,7 +3841,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44903</v>
       </c>
@@ -3859,7 +3852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44904</v>
       </c>
@@ -3870,7 +3863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44906</v>
       </c>
@@ -3878,7 +3871,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44906</v>
       </c>
@@ -3889,7 +3882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44907</v>
       </c>
@@ -3897,7 +3890,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44908</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44909</v>
       </c>
@@ -3922,7 +3915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44910</v>
       </c>
@@ -3995,10 +3988,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF409CDA-AA1E-4040-93D1-2DD18BDD4053}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4077,7 +4070,7 @@
         <v>400</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -4100,6 +4093,114 @@
       </c>
       <c r="E5">
         <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44924</v>
+      </c>
+      <c r="Q6">
+        <v>143</v>
+      </c>
+      <c r="R6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44924</v>
+      </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B14">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44931</v>
+      </c>
+      <c r="Q15">
+        <v>65</v>
+      </c>
+      <c r="R15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="R17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
